--- a/biology/Médecine/Onercept/Onercept.xlsx
+++ b/biology/Médecine/Onercept/Onercept.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'onercept est une protéine recombinante du récepteur monomérique p55 (récepteur TNF p55) qui agit comme un anti-TNF.
-Il a été développé en 2003 par la société de biotechnologie Serono pour le traitement éventuel d'un certain nombre de maladies, y compris la maladie de Crohn, le psoriasis et le rhumatisme psoriasique[1].
-Cependant, en 2007, l'onercept n'a pas d'activité clinique démontrée dans la maladie de Crohn[2].
+Il a été développé en 2003 par la société de biotechnologie Serono pour le traitement éventuel d'un certain nombre de maladies, y compris la maladie de Crohn, le psoriasis et le rhumatisme psoriasique.
+Cependant, en 2007, l'onercept n'a pas d'activité clinique démontrée dans la maladie de Crohn.
 </t>
         </is>
       </c>
